--- a/final_complete_exhibits.xlsx
+++ b/final_complete_exhibits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,98 +436,1976 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>exhibit_number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exhibit_info</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>source_file</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exhibit_count</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pointer</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>exhibit_info</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>exhibit_count</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1/17  </t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sample.pdf</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>This is the first sentence of the document, and it contains a reference to the first footnote</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>I This is the first footnote, providing more detail.</t>
+          <t>icc_document.pdf</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+Public 
+Finding under article 87(7) of the Rome Statute on the non-compliance by Mongolia 
+with the request by the Court to cooperate in the arrest and surrender of Vladimir 
+Vladimirovich Putin and referral to the Assembly of States Parties 
+</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>69</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2/17  </t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sample.pdf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>.Here is another sentence with a second footnote reference</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B The second footnote is here, with additional information.</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sample.pdf</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>.A third reference</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C And finally, the third footnote appears here.</t>
+          <t>icc_document.pdf</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+Victims and Witnesses Unit 
+Detention Section 
+Victims Participation and  
+Reparations Section 
+Other 
+Presidency 
+Assembly of States Parties 
+</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>69</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3/17  </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>69</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+4. 
+On 26 and 28 August 2024, acting on the basis of media reports of Mr Putin’s 
+expected travel to Mongolia for the 85th anniversary of the victory in the Battle of 
+Khalkhin Gol towards the end of August/beginning of September, the Registry 
+transmitted to Mongolia two notes verbales inviting it to provide information regarding 
+the visit and renewing the request to cooperate with the Court in the arrest and surrender 
+of Mr Putin.6 
+                                                 </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>69</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prosecution’s application under article 58 for a warrant of arrest against Vladimir Vladimirovich 
+PUTIN, 22 February 2023, ICC-01/22-14-SECRET-Exp. </t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>69</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Warrant of Arrest for Vladimir Vladimirovich Putin, ICC-01/22-18-SECRET. </t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>69</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">See Request to all States Parties to the Rome Statute for the provisional arrest of Vladimir 
+Vladimirovich Putin pursuant to article 92 of the Rome Statute in implementation of Pre-Trial Chamber 
+II’s Order of 24 April 2023, 26 April 2023, ICC-01/22-25-Conf. </t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>69</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Registry Report on the implementation of Pre-Trial Chamber II’s Decision of 24 April 2023 (ICC-
+01/22-23-Conf-Exp), 5 May 2023, ICC-01/22-29-Conf-Exp, para. 8, p. 5. </t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>69</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annex II to Registry transmission of a communication received from Mongolia in relation to Pre-Trial 
+Chamber II’s Order dated 24 April 2023 (ICC-01/22-23-Conf-Exp), 30 August 2024, ICC-01/22-83-
+Conf-Exp-AnxII. </t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>69</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Registry transmission of a communication received from Mongolia in relation to Pre-Trial Chamber 
+II’s Order dated 24 April 2023 (ICC-01/22-23-Conf-Exp), 30 August 2024, ICC-01/22-83-Conf-Exp, 
+paras 10-12. 
+</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>69</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+4/17  </t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>69</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+g
+p
+g
+g
+g
+7. 
+On the same date, the Chamber issued its response to Mongolia’s submissions 
+noting that, for consultations to be meaningful, they must be timely. The Chamber also 
+recalled its classified response to the submissions of another State Party issued in the 
+context of a prior consultation process under article 97 of the Statute and notified to all 
+States Parties, including Mongolia,10 whereby it found that ‘personal immunity of 
+officials, including Heads of third States, is not opposable in proceedings before the 
+Court, nor a waiver of immunity is required under article 98 of the Statute’. The 
+Chamber thus found that the submissions presented by Mongolia did not show any 
+                                                 </t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>69</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annex I to Registry transmission of a communication received from Mongolia in relation to Pre-Trial 
+Chamber II’s Order dated 24 April 2023 (ICC-01/22-23-Conf-Exp), ICC-01/22-83-Conf-Exp-AnxI. </t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>69</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Email from Pre-Trial Chamber II to the Registry, 30 August 2024, at 16h10. </t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>69</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annex I to Registry transmission of additional communication received from Mongolia in relation to 
+Pre-Trial Chamber II’s Order dated 24 April 2023 (ICC-01/22-23-Conf-Exp), ICC-01/22-84-Conf-Exp-
+AnxI. </t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>69</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Response to submissions of a State Party under article 97 of the Rome Statute in relation to the 
+Requests for provisional arrest of 26 April 2023 pursuant to the Order on the Requests for provisional 
+arrest of 24 April 2023, 17 July 2023, ICC-01/22-42-Conf. 
+</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>69</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+5/17  </t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>69</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+contrary to the provisions of this Statute, thereby preventing the Court from 
+exercising its functions and powers under this Statute, the Court may make a 
+finding to that effect and refer the matter to the Assembly of States Parties […]. 
+11. 
+In interpreting this provision, the Appeals Chamber has held that: 
+[t]he first clause of article 87(7) of the Statute consists of two cumulative 
+conditions, namely, (i) that the State concerned failed to comply with a request to 
+cooperate; and (ii) that this non-compliance is grave enough to prevent the Court 
+from exercising its functions and powers under the Statute. It is only when the 
+Chamber has established that both conditions are met that it may proceed to 
+                                                 </t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>69</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Response to submissions of a State Party under article 97 of the Rome Statute in relation to the 
+Requests for provisional arrest of 26 April 2023 pursuant to the Order on the Requests for provisional 
+arrest of 24 April 2023, ICC-01/22-85-Conf, paras 9-10, 12 (the ‘2 September 2024 Response’). </t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>69</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Decision inviting Mongolia to provide any further submissions on its failure to arrest and surrender 
+Vladimir Vladimirovich Putin, 10 September 2024, ICC-01/22-86-Conf, para. 9 (the ‘10 September 2024 
+Decision’). </t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>69</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annex I (confidential ex parte Prosecution only) to Registry transmission of the submissions sent by 
+Mongolia in relation to Pre-Trial Chamber II’s Decision inviting Mongolia to provide any further 
+submissions on its failure to arrest and surrender Vladimir Vladimirovich Putin dated 10 September 2024 
+(ICC-01/22-86-Conf), ICC-01/22-89-Conf-Exp-Anx (dated 4 October 2024 and notified on 7 October 
+2024). 
+</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>69</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+6/17  </t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>69</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+from exercising its functions and powers under the Statute 
+14. 
+At the outset, the Chamber recalls that States Parties must operate in all 
+circumstances in good faith, consistently with the object and the purpose of the Statute 
+and with the expectation that each and all signatories will meaningfully fulfil the 
+obligations agreed in the Statute for the benefit of humanity. In this regard, pursuant to 
+article 86 of the Statute, Mongolia, as a State Party, ‘shall, in accordance with the 
+provisions of this Statute, cooperate fully with the Court in its investigation and 
+prosecution of crimes within the jurisdiction of the Court’. Article 87 of the Statute 
+provides that ‘[t]he Court shall have the authority to make requests to States Parties for 
+cooperation’, including notably requests for the arrest and surrender of a person 
+pursuant to article 89 of the Statute as in the present case. In this regard, the Chamber 
+also notes article 59 of the Statute, according to which ‘[a] State Party which has 
+                                                 </t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>69</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appeals Chamber, Prosecutor v. Omar Hassan Ahmad Al-Bashir, Judgment in the Jordan Referral re 
+Al-Bashir Appeal, 6 May 2019, ICC-02/05-01/09-397-Corr, para. 8 (the ‘Jordan Appeal Judgment’). </t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>69</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appeals Chamber, Prosecutor v. Uhuru Muigai Kenyatta, Judgment on the Prosecutor’s appeal against 
+Trial Chamber V(B)’s ‘Decision on Prosecution’s application for a finding of non-compliance under 
+Article 87(7) of the Statute’, 19 August 2015, ICC-01/09-02/11-1032, para. 1 (the ‘Kenyatta Appeal 
+Judgment’).  
+</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>69</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+7/17  </t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>69</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+concerned State Party has identified which may impede or prevent the execution of the 
+request for cooperation’.19 The Chamber has already found that, ‘[g]iven that Mongolia 
+requested consultations with the Court without allowing sufficient time to properly 
+address the matter’, namely only a few days before the planned visit of Mr Putin on its 
+territory, ‘the request does not appear to have aimed at meaningfully resolving the 
+problem allegedly obstructing the execution of the cooperation request, as required by 
+article 97 [of the Statute]’.20 In addition, as held by Pre-Trial Chamber II in a previous 
+composition, ‘[c]onsultations (whether requested or ongoing) between a State and the 
+Court do not, as such, suspend or otherwise affect the validity of the Court’s request for 
+                                                 </t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>69</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mongolia’s Submissions, para. 169. </t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>69</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mongolia’s Submissions, paras 1, 167. </t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>69</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 September 2024 Response, para. 9, referring to Jordan Appeal Judgment, para. 202 (‘the phrase 
+“without delay” in article 97 signifies that the intention to consult must be communicated to the Court 
+timeously, so as not to frustrate the object of the request for cooperation or defeat the purpose of the 
+consultation process’). </t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>69</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 September 2024 Decision, para. 9. </t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>69</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 September 2024 Decision, para. 9. 
+</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>69</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+8/17  </t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>69</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+g
+19. 
+The Chamber notes that the issue under consideration is neither whether there 
+exists immunity for Heads of State under customary international law vis-à-vis an 
+international court, nor whether non-States Parties are bound by the provisions of the 
+Statute. With regard to the latter issue, the Chamber recalls that article 34 of the Vienna 
+Convention on the Law of Treaties, providing that ‘[a] treaty does not create either 
+obligations or rights for a third State without its consent’, is irrelevant to the matter at 
+hand, since the Court is not aiming to impose obligations contained in the Statute to 
+non-States Parties, but is rather seeking the cooperation of States Parties in cases against 
+individuals who allegedly committed crimes under article 5 of the Statute on the 
+territory of a State where the Court has jurisdiction. 
+20. 
+The question that the Chamber has to answer in the present case is whether States 
+Parties, including Mongolia, and States that have accepted the jurisdiction of the Court 
+                                                 </t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>69</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Decision under article 87(7) of the Rome Statute on the non-compliance by South Africa with the 
+request by the Court for the arrest and surrender of Omar Al-Bashir, ICC-02/05-01/09-302, para. 119; 
+Decision under article 87(7) of the Rome Statute on the non-compliance by Jordan with the request by 
+the Court for the arrest and surrender [of] Omar Al-Bashir, ICC-02/05-01/09-309, para. 48. </t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>69</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mongolia’s Submissions, paras 5-9. 
+</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>69</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+9/17  </t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>39</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>69</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+22. 
+The object and purpose of the Statute is to be derived in part from its Preamble, 
+which specifically acknowledges the following: 
+[…] Recognizing that such grave crimes threaten the peace, security and well-
+being of the world, 
+Affirming that the most serious crimes of concern to the international community 
+as a whole must not go unpunished and that their effective prosecution must be 
+ensured by taking measures at the national level and by enhancing international 
+cooperation, 
+Determined to put an end to impunity for the perpetrators of these crimes and thus 
+to contribute to the prevention of such crimes, […] 
+Determined to these ends and for the sake of present and future generations, to 
+establish an independent permanent International Criminal Court in relationship 
+with the United Nations system, with jurisdiction over the most serious crimes of 
+concern to the international community as a whole, 
+                                                 </t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>69</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">See footnote 10 above. </t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>69</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">See above ‘Procedural history and background’. 
+</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>69</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+10/17  </t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>69</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+would require the requested State to act inconsistently with its obligations under 
+international law with respect to the State or diplomatic immunity of a person or 
+property of a third State, unless the Court can first obtain the cooperation of that 
+third State for the waiver of the immunity. 
+26. 
+Article 27 is placed in the third part of the Statute titled ‘General principles of 
+criminal law’, lays down the fundamental principle of irrelevance of official capacity, 
+and represents a primary obligation within the statutory framework, which must be 
+considered together with the Preamble of the Statute when engaging in the 
+interpretation of the Statute in light of its content and purpose. The importance of article </t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>69</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">is highlighted by its critical role in promoting accountability for serious crimes. This 
+provision creates a binding legal obligation for States Parties to uphold its tenets in both 
+domestic and international contexts, ensuring that the objectives of the Statute are fully 
+achieved. By mandating accountability without exception, article 27 strengthens the 
+integrity of the international legal framework and reinforces the commitment of States 
+Parties to combat impunity for the most serious crimes of concern to the international 
+community. 
+</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>45</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>69</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+11/17  </t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>69</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+y
+p
+p
+,
+multilateral obligation cannot be altered or superseded by any bilateral commitments 
+that may conflict with the Rome Statute’s objectives. 
+29. 
+In its submissions, Mongolia references the International Court of Justice’s 
+(‘ICJ’) judgment in the Arrest Warrant case.25 While Mongolia’s Submissions provide 
+a partial quotation, the Chamber finds it important to consider the full context of the 
+ICJ judgment for reference, as follows: 
+[…] an incumbent or former Minister for Foreign Affairs may be subject to 
+criminal proceedings before certain international criminal courts, where they 
+have jurisdiction. Examples include the International Criminal Tribunal for the 
+former Yugoslavia, and the International Criminal Tribunal for Rwanda, […] and 
+the future International Criminal Court created by the 1998 Rome Convention. 
+The latter’s Statute expressly provides, in Article 27, paragraph 2, that 
+“[i]mmunities or special procedural rules which may attach to the official 
+capacity of a person, whether under national or international law, shall not bar 
+the Court from exercising its jurisdiction over such a person.26 (emphasis added) 
+                                                 </t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>47</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>69</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mongolia’s Submissions, paras 60-62. </t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>48</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>69</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">International Court of Justice, Judgment of 14 February 2002 in the Arrest Warrant case, para. 61. 
+</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>49</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>69</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+12/17  </t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>50</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>69</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+,
+g
+j
+the international community as a whole’ since they ‘threaten the peace, security and 
+well-being of the world’. This high aim is shared and upheld by the 124 States that have 
+ratified the Rome Statute, a number that represents about two-thirds of the international 
+community. This confirms the commitment to prosecute the most serious crimes of 
+concern to the international community and, in doing so, putting an end to impunity for 
+the perpetrators of these crimes.   
+32. 
+The Chamber further notes that, since the moment the Statute was signed and 
+came into force, the Court has progressively evolved to the effect that it acts in the 
+interests of the international community as a whole. In this respect, it is to be noted that 
+the United Nations Security Council (‘UNSC’), which is entrusted with the primary 
+responsibility for the maintenance of international peace and security, has recognised 
+the role of the Court in different instances, particularly in the resolutions referring the 
+situations in Darfur and Libya to the Court. The Chamber also recalls that the 
+Prosecutor reports regularly to the members of the UNSC on the situations in Darfur 
+and Libya, with none of them objecting to the role of the Court, its mandate, or its 
+international character. 
+</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>51</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>69</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+13/17  </t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>52</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>69</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+p
+y
+g
+contextual interpretation, in light of and consistently with the object and purpose of the 
+Statute. It clearly stems from a systematic interpretation of the Statute that article 98 
+does not and could not undermine the fundamental principles codified in article 27, on 
+which the entire Court’s system stands. Article 98(1) neither supplements, modifies, 
+nor provides exceptions to article 27(2). Any other interpretation would fatally render 
+the obligations of States Parties senseless and the overall Court’s system futile, contrary 
+to the principle of effectiveness (ut res magis valeat quam pereat), stemming from 
+article 31 of the Vienna Convention on the Law of Treaties, according to which treaties 
+should be interpreted so as to ensure their effective implementation. 
+35. 
+Unlike article 27(1), article 98(1) does not make reference to Heads of State. The 
+latter is a purely procedural provision according to which the Court may take into 
+account certain State’s pre-existing obligations in the context of requests for 
+cooperation. The wording and the context of article 98(1) suggests that it refers only to 
+acts of government activities which are typically conducted abroad and are protected 
+by the safeguards on diplomatic immunity for certain officials and buildings. Moreover, 
+when the provision mentions State immunity, it does not address the immunity of the 
+</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>53</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>69</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+14/17  </t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>54</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>69</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+purposes of the implementation of the Request for Cooperation, Mongolia has acted 
+inconsistently with its international obligations under the Statute, thereby preventing 
+the Court from exercising its functions and powers under the Statute. Indeed, in the 
+Court’s system, the presence of the suspect is required for a trial to take place and any 
+bar to the execution of an arrest warrant – which is ‘one of the means to ensure the 
+presence of the suspect before the Court and is therefore an important power and 
+fundamental function of the Court’28 – would inevitably convert into the paralysis of 
+the proceedings and therefore into impunity, undermining the ability of the Court to 
+ensure that the most serious crimes of concern to the international community as a 
+whole do not go unpunished. These circumstances render Mongolia’s failure to 
+cooperate with the Court in the arrest and surrender of Mr Putin particularly serious.  
+38. 
+The Chamber concludes that, by failing to arrest Mr Putin while he was on its 
+territory and by not promptly informing the Court of its intentions in this regard, 
+                                                 </t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>55</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>69</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jordan Appeal Judgment, para. 5 (‘Article 98(1) of the Statute does not itself stipulate, recognise or 
+preserve any immunities. It is a procedural rule that determines how the Court is to proceed where any 
+immunity exists such that it could stand in the way of a request for cooperation’). See also 2 September </t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>56</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>69</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Response, para. 10. </t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>57</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>69</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jordan Appeal Judgment, para. 9. 
+</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>58</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>69</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+15/17  </t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>59</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>69</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+towards the Court and towards the international community as a whole to cooperate in 
+the arrest and surrender of Mr Putin. In its submissions, Mongolia does not advance 
+any valid justifications for this breach of its statutory obligations and, most importantly 
+for present purposes, does not indicate that it will in the future cooperate with the Court 
+should the same situation arise. Accordingly, in view of the seriousness of Mongolia’s 
+failure to cooperate with the Court, the Chamber considers it appropriate to refer the 
+matter of Mongolia’s non-compliance to the Assembly of States Parties. 
+41. 
+As found by the Appeals Chamber, article 87(7) of the Statute ‘aims at enhancing 
+the effectiveness of the cooperation regime under Part IX of the Statute, by providing 
+the Court with the possibility of engaging certain external actors to remedy cases of 
+non-compliance’.31 Since the object and purpose of article 87(7) of the Statute is 
+therefore to ‘foster cooperation’, a referral under that provision is ‘not intended to be 
+                                                 </t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>60</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>69</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">See footnote 10 above (the Chamber had ordered for that response to be notified to all States Parties 
+‘as relevant to their duties of cooperation’). </t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>61</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>69</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">See 2 September 2024 Response, para 10. </t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>62</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>69</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kenyatta Appeal Judgment, para. 51. 
+</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>63</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>69</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+16/17  </t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>64</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>69</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+                                                 </t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>65</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>69</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kenyatta Appeal Judgment, para. 51. </t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>66</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>69</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 September 2024 Response, para. 11. 
+</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>67</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>69</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+17/17  </t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>68</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>69</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 2024 
+_____________________________ 
+Judge Rosario Salvatore Aitala,  
+Presiding Judge 
+_____________________________ 
+Judge Sergio Gerardo Ugalde 
+Godínez  
+_____________________________ 
+Judge Haykel Ben Mahfoudh  
+Dated this Thursday, 24 October 2024 
+At The Hague, The Netherlands 
+</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>69</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>icc_document.pdf</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>69</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
